--- a/Valhalla Ball possible player actions.xlsx
+++ b/Valhalla Ball possible player actions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moocow\Documents\Made Games\Valhalla-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C86352-BC2C-4591-9CCA-B86B29913A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35258443-F70D-45CD-BDE8-07F09D570421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A711DB91-CA52-4148-B41C-AAEF374E65EA}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="28725" windowHeight="15600" xr2:uid="{A711DB91-CA52-4148-B41C-AAEF374E65EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
   <si>
     <t>Move</t>
   </si>
@@ -84,13 +84,28 @@
   </si>
   <si>
     <t>State\Actions possible</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Charge-Throw</t>
+  </si>
+  <si>
+    <t>Charging-Throw</t>
+  </si>
+  <si>
+    <t>WITH Ball</t>
+  </si>
+  <si>
+    <t>NO Ball</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -128,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,11 +151,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -195,26 +198,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA809795-2B59-4ED0-81E9-F201F4A69EBC}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,10 +538,10 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="9" width="15" customWidth="1"/>
+    <col min="6" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -564,39 +564,72 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -604,75 +637,231 @@
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
